--- a/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
+++ b/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
   <si>
     <t>WorkflowName</t>
   </si>
@@ -84,13 +87,97 @@
     <t>ModuleDisplayName</t>
   </si>
   <si>
-    <t>CRMNotification</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>NotifyTriggerETRS</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>NewTriggerNotification</t>
+  </si>
+  <si>
+    <t>NotifyTemplate_Msg</t>
+  </si>
+  <si>
+    <t>Welcome to Notification test automation for ETRS.</t>
+  </si>
+  <si>
+    <t>SummaryAdd@gmail.com</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>DuplicateChange@gmail.com</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>EditNewData@gmail.com</t>
+  </si>
+  <si>
+    <t>Very bad</t>
+  </si>
+  <si>
+    <t>SingleEdit</t>
+  </si>
+  <si>
+    <t>93094</t>
+  </si>
+  <si>
+    <t>93098</t>
+  </si>
+  <si>
+    <t>93102</t>
+  </si>
+  <si>
+    <t>93106</t>
+  </si>
+  <si>
+    <t>93110</t>
+  </si>
+  <si>
+    <t>93117</t>
+  </si>
+  <si>
+    <t>93121</t>
+  </si>
+  <si>
+    <t>93125</t>
+  </si>
+  <si>
+    <t>93129</t>
+  </si>
+  <si>
+    <t>93133</t>
+  </si>
+  <si>
+    <t>93137</t>
+  </si>
+  <si>
+    <t>93144</t>
+  </si>
+  <si>
+    <t>93148</t>
+  </si>
+  <si>
+    <t>93152</t>
+  </si>
+  <si>
+    <t>93156</t>
+  </si>
+  <si>
+    <t>93160</t>
+  </si>
+  <si>
+    <t>93164</t>
+  </si>
+  <si>
+    <t>93168</t>
+  </si>
+  <si>
+    <t>93172</t>
+  </si>
+  <si>
+    <t>93176</t>
   </si>
 </sst>
 </file>
@@ -136,12 +223,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -424,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,9 +535,11 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="8.26953125"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="11.90625"/>
     <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
         <v>2</v>
       </c>
@@ -490,8 +582,14 @@
       <c r="AQ1" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="AR1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
@@ -523,13 +621,398 @@
         <v>13</v>
       </c>
       <c r="K2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="AK2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>2233445566</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.0"/>
+    <col min="5" max="5" customWidth="true" width="13.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7265625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" t="s" s="0">
+    </row>
+    <row r="2" spans="1:52" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0">
+        <v>9087654321</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3333333333</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5555555555</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s" s="0">
         <v>22</v>
       </c>
+      <c r="L2" t="s" s="0">
+        <v>49</v>
+      </c>
       <c r="AQ2" s="3" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.0"/>
+    <col min="5" max="5" customWidth="true" width="13.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7265625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0">
+        <v>9087654321</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2222222222</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2">
+        <v>666666666</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.0"/>
+    <col min="5" max="5" customWidth="true" width="13.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7265625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0">
+        <v>9087654321</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1111111111</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7777777777</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
+++ b/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="53">
   <si>
     <t>WorkflowName</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>93176</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
         <v>48</v>
       </c>
       <c r="AK2" t="s" s="0">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>

--- a/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
+++ b/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="61">
   <si>
     <t>WorkflowName</t>
   </si>
@@ -181,6 +181,30 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>122322</t>
+  </si>
+  <si>
+    <t>122330</t>
+  </si>
+  <si>
+    <t>122334</t>
+  </si>
+  <si>
+    <t>122338</t>
+  </si>
+  <si>
+    <t>122342</t>
+  </si>
+  <si>
+    <t>122380</t>
+  </si>
+  <si>
+    <t>122778</t>
   </si>
 </sst>
 </file>
@@ -627,10 +651,10 @@
         <v>22</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>

--- a/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
+++ b/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
   <si>
     <t>WorkflowName</t>
   </si>
@@ -87,18 +87,9 @@
     <t>ModuleDisplayName</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>NewTriggerNotification</t>
-  </si>
-  <si>
     <t>NotifyTemplate_Msg</t>
   </si>
   <si>
-    <t>Welcome to Notification test automation for ETRS.</t>
-  </si>
-  <si>
     <t>SummaryAdd@gmail.com</t>
   </si>
   <si>
@@ -120,91 +111,97 @@
     <t>SingleEdit</t>
   </si>
   <si>
-    <t>93094</t>
-  </si>
-  <si>
-    <t>93098</t>
-  </si>
-  <si>
-    <t>93102</t>
-  </si>
-  <si>
-    <t>93106</t>
-  </si>
-  <si>
-    <t>93110</t>
-  </si>
-  <si>
-    <t>93117</t>
-  </si>
-  <si>
-    <t>93121</t>
-  </si>
-  <si>
-    <t>93125</t>
-  </si>
-  <si>
-    <t>93129</t>
-  </si>
-  <si>
-    <t>93133</t>
-  </si>
-  <si>
-    <t>93137</t>
-  </si>
-  <si>
-    <t>93144</t>
-  </si>
-  <si>
-    <t>93148</t>
-  </si>
-  <si>
-    <t>93152</t>
-  </si>
-  <si>
-    <t>93156</t>
-  </si>
-  <si>
-    <t>93160</t>
-  </si>
-  <si>
-    <t>93164</t>
-  </si>
-  <si>
-    <t>93168</t>
-  </si>
-  <si>
-    <t>93172</t>
-  </si>
-  <si>
-    <t>93176</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>122322</t>
-  </si>
-  <si>
-    <t>122330</t>
-  </si>
-  <si>
-    <t>122334</t>
-  </si>
-  <si>
-    <t>122338</t>
-  </si>
-  <si>
-    <t>122342</t>
-  </si>
-  <si>
-    <t>122380</t>
-  </si>
-  <si>
-    <t>122778</t>
+    <t>ETRS Notify</t>
+  </si>
+  <si>
+    <t>tskETRS_Notify</t>
+  </si>
+  <si>
+    <t>122916</t>
+  </si>
+  <si>
+    <t>122920</t>
+  </si>
+  <si>
+    <t>122924</t>
+  </si>
+  <si>
+    <t>122934</t>
+  </si>
+  <si>
+    <t>122938</t>
+  </si>
+  <si>
+    <t>122942</t>
+  </si>
+  <si>
+    <t>122964</t>
+  </si>
+  <si>
+    <t>122968</t>
+  </si>
+  <si>
+    <t>122974</t>
+  </si>
+  <si>
+    <t>123008</t>
+  </si>
+  <si>
+    <t>123012</t>
+  </si>
+  <si>
+    <t>123016</t>
+  </si>
+  <si>
+    <t>123023</t>
+  </si>
+  <si>
+    <t>123027</t>
+  </si>
+  <si>
+    <t>123031</t>
+  </si>
+  <si>
+    <t>123041</t>
+  </si>
+  <si>
+    <t>123049</t>
+  </si>
+  <si>
+    <t>123053</t>
+  </si>
+  <si>
+    <t>123057</t>
+  </si>
+  <si>
+    <t>123064</t>
+  </si>
+  <si>
+    <t>123068</t>
+  </si>
+  <si>
+    <t>123072</t>
+  </si>
+  <si>
+    <t>123079</t>
+  </si>
+  <si>
+    <t>123083</t>
+  </si>
+  <si>
+    <t>123087</t>
+  </si>
+  <si>
+    <t>123099</t>
+  </si>
+  <si>
+    <t>123103</t>
+  </si>
+  <si>
+    <t>123113</t>
   </si>
 </sst>
 </file>
@@ -212,7 +209,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +221,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -258,6 +262,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,30 +550,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="18.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.0"/>
     <col min="5" max="5" customWidth="true" width="13.0"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.1796875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="16.1796875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.42578125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.140625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.28515625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="16.140625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>2</v>
       </c>
@@ -610,13 +617,13 @@
         <v>20</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
@@ -648,13 +655,13 @@
         <v>13</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AK2" t="s" s="0">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
@@ -663,7 +670,7 @@
         <v>2233445566</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -679,29 +686,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="18.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.0"/>
     <col min="5" max="5" customWidth="true" width="13.0"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7265625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.1796875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7109375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.140625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.28515625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>2</v>
       </c>
@@ -745,10 +752,10 @@
         <v>20</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
@@ -765,10 +772,10 @@
         <v>3333333333</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2">
         <v>5555555555</v>
@@ -780,16 +787,16 @@
         <v>13</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AZ2" s="4" t="s">
-        <v>24</v>
+      <c r="AZ2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -804,29 +811,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="18.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.0"/>
     <col min="5" max="5" customWidth="true" width="13.0"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7265625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.1796875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7109375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.140625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.28515625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>2</v>
       </c>
@@ -870,10 +877,10 @@
         <v>20</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
@@ -890,10 +897,10 @@
         <v>2222222222</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2">
         <v>666666666</v>
@@ -905,16 +912,16 @@
         <v>13</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -929,29 +936,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="18.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.0"/>
     <col min="5" max="5" customWidth="true" width="13.0"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7265625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.1796875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7109375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.140625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.28515625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="19.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>2</v>
       </c>
@@ -995,10 +1002,10 @@
         <v>20</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
@@ -1015,10 +1022,10 @@
         <v>1111111111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2">
         <v>7777777777</v>
@@ -1030,16 +1037,16 @@
         <v>13</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
+++ b/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="63">
   <si>
     <t>WorkflowName</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>123113</t>
+  </si>
+  <si>
+    <t>123433</t>
+  </si>
+  <si>
+    <t>123437</t>
+  </si>
+  <si>
+    <t>123441</t>
   </si>
 </sst>
 </file>
@@ -658,7 +667,7 @@
         <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="s" s="0">
         <v>29</v>
@@ -790,7 +799,7 @@
         <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
@@ -915,7 +924,7 @@
         <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
@@ -1040,7 +1049,7 @@
         <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>

--- a/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
+++ b/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
   <si>
     <t>WorkflowName</t>
   </si>
@@ -111,99 +111,12 @@
     <t>SingleEdit</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>ETRS Notify</t>
   </si>
   <si>
     <t>tskETRS_Notify</t>
   </si>
   <si>
-    <t>122916</t>
-  </si>
-  <si>
-    <t>122920</t>
-  </si>
-  <si>
-    <t>122924</t>
-  </si>
-  <si>
-    <t>122934</t>
-  </si>
-  <si>
-    <t>122938</t>
-  </si>
-  <si>
-    <t>122942</t>
-  </si>
-  <si>
-    <t>122964</t>
-  </si>
-  <si>
-    <t>122968</t>
-  </si>
-  <si>
-    <t>122974</t>
-  </si>
-  <si>
-    <t>123008</t>
-  </si>
-  <si>
-    <t>123012</t>
-  </si>
-  <si>
-    <t>123016</t>
-  </si>
-  <si>
-    <t>123023</t>
-  </si>
-  <si>
-    <t>123027</t>
-  </si>
-  <si>
-    <t>123031</t>
-  </si>
-  <si>
-    <t>123041</t>
-  </si>
-  <si>
-    <t>123049</t>
-  </si>
-  <si>
-    <t>123053</t>
-  </si>
-  <si>
-    <t>123057</t>
-  </si>
-  <si>
-    <t>123064</t>
-  </si>
-  <si>
-    <t>123068</t>
-  </si>
-  <si>
-    <t>123072</t>
-  </si>
-  <si>
-    <t>123079</t>
-  </si>
-  <si>
-    <t>123083</t>
-  </si>
-  <si>
-    <t>123087</t>
-  </si>
-  <si>
-    <t>123099</t>
-  </si>
-  <si>
-    <t>123103</t>
-  </si>
-  <si>
-    <t>123113</t>
-  </si>
-  <si>
     <t>123433</t>
   </si>
   <si>
@@ -211,6 +124,12 @@
   </si>
   <si>
     <t>123441</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -559,30 +478,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="18.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.453125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.0"/>
     <col min="5" max="5" customWidth="true" width="13.0"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.42578125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.140625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.85546875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.140625"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.28515625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.85546875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.42578125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="16.140625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.1796875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
         <v>2</v>
       </c>
@@ -632,7 +551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
@@ -664,13 +583,13 @@
         <v>13</v>
       </c>
       <c r="K2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="L2" t="s" s="0">
-        <v>60</v>
-      </c>
       <c r="AK2" t="s" s="0">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
@@ -679,7 +598,7 @@
         <v>2233445566</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -695,29 +614,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="18.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.453125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.0"/>
     <col min="5" max="5" customWidth="true" width="13.0"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7109375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.140625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.85546875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.140625"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.28515625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.85546875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.42578125"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7265625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.1796875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
         <v>2</v>
       </c>
@@ -764,7 +683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
@@ -796,16 +715,16 @@
         <v>13</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AZ2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -820,29 +739,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="18.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.453125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.0"/>
     <col min="5" max="5" customWidth="true" width="13.0"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7109375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.140625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.85546875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.140625"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.28515625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.85546875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.42578125"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7265625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.1796875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
         <v>2</v>
       </c>
@@ -889,7 +808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
@@ -921,16 +840,16 @@
         <v>13</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -945,29 +864,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="18.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.453125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.0"/>
     <col min="5" max="5" customWidth="true" width="13.0"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7109375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.140625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.85546875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.140625"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.28515625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.85546875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.42578125"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="19.85546875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7265625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.1796875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="19.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
         <v>2</v>
       </c>
@@ -1014,7 +933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
@@ -1046,16 +965,16 @@
         <v>13</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
+++ b/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
   <si>
     <t>WorkflowName</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>125214</t>
+  </si>
+  <si>
+    <t>125218</t>
+  </si>
+  <si>
+    <t>125222</t>
   </si>
 </sst>
 </file>
@@ -586,7 +595,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AK2" t="s" s="0">
         <v>35</v>
@@ -718,7 +727,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
@@ -843,7 +852,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
@@ -968,7 +977,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>

--- a/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
+++ b/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="49">
   <si>
     <t>WorkflowName</t>
   </si>
@@ -139,6 +139,36 @@
   </si>
   <si>
     <t>125222</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>136134</t>
+  </si>
+  <si>
+    <t>136138</t>
+  </si>
+  <si>
+    <t>136142</t>
+  </si>
+  <si>
+    <t>136270</t>
+  </si>
+  <si>
+    <t>136287</t>
+  </si>
+  <si>
+    <t>136300</t>
+  </si>
+  <si>
+    <t>136356</t>
+  </si>
+  <si>
+    <t>136360</t>
+  </si>
+  <si>
+    <t>136364</t>
   </si>
 </sst>
 </file>
@@ -595,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AK2" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
@@ -727,7 +757,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
@@ -852,7 +882,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
@@ -977,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>

--- a/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
+++ b/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
   <si>
     <t>WorkflowName</t>
   </si>
@@ -169,6 +169,27 @@
   </si>
   <si>
     <t>136364</t>
+  </si>
+  <si>
+    <t>159151</t>
+  </si>
+  <si>
+    <t>159155</t>
+  </si>
+  <si>
+    <t>159163</t>
+  </si>
+  <si>
+    <t>159167</t>
+  </si>
+  <si>
+    <t>159171</t>
+  </si>
+  <si>
+    <t>159175</t>
+  </si>
+  <si>
+    <t>159179</t>
   </si>
 </sst>
 </file>
@@ -625,7 +646,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AK2" t="s" s="0">
         <v>39</v>

--- a/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
+++ b/testData/Notification/WF1_Send_Notify_ETR_S_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
   <si>
     <t>WorkflowName</t>
   </si>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>159179</t>
+  </si>
+  <si>
+    <t>159476</t>
+  </si>
+  <si>
+    <t>159508</t>
+  </si>
+  <si>
+    <t>159512</t>
+  </si>
+  <si>
+    <t>159516</t>
   </si>
 </sst>
 </file>
@@ -646,7 +658,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK2" t="s" s="0">
         <v>39</v>
@@ -778,7 +790,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
@@ -903,7 +915,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>1</v>
